--- a/SportsInviter/Data/Input/Shadow Warriors/PlayerDetails.xlsx
+++ b/SportsInviter/Data/Input/Shadow Warriors/PlayerDetails.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A17321-966E-4E76-A755-DA719F684130}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF62AE71-2305-442D-93F0-AEC1D6EFD6F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -546,7 +546,9 @@
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
@@ -686,8 +688,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3:B14" r:id="rId1" display="aruncyclopse007@gmail.com" xr:uid="{65958DEF-736F-4A19-BDE5-4ED6DFD11D32}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{1FF11965-1771-41CE-8399-7635CB1C117D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>